--- a/docs/C++ 基本構文.xlsx
+++ b/docs/C++ 基本構文.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\masa\atcoder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA4976-3646-433B-ABF2-AD5853CD8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87492D6B-1DDF-4B84-A629-A898D94D761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,9 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
